--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_184__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_184__Reeval_LHS_Modell_1.2.xlsx
@@ -5885,13 +5885,13 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.61781311035156</c:v>
+                  <c:v>30.61780738830566</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>57.26288986206055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.70899200439453</c:v>
+                  <c:v>57.7089958190918</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.27070236206055</c:v>
@@ -5930,10 +5930,10 @@
                   <c:v>64.46941375732422</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80.66524505615234</c:v>
+                  <c:v>80.66525268554688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.92597579956055</c:v>
+                  <c:v>29.92597198486328</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>58.78035736083984</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>59.03426361083984</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.37207412719727</c:v>
+                  <c:v>55.37208557128906</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50.15082931518555</c:v>
@@ -5957,7 +5957,7 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>96.39145660400391</c:v>
+                  <c:v>96.39146423339844</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>50.15082931518555</c:v>
@@ -5975,16 +5975,16 @@
                   <c:v>89.38733673095703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.759207725524902</c:v>
+                  <c:v>7.759209156036377</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29.91083717346191</c:v>
+                  <c:v>29.91084098815918</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.95925140380859</c:v>
+                  <c:v>69.95924377441406</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>50.15082931518555</c:v>
@@ -5993,16 +5993,16 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.23220634460449</c:v>
+                  <c:v>30.23221778869629</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68.10670471191406</c:v>
+                  <c:v>68.10671234130859</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>67.49008178710938</c:v>
+                  <c:v>67.49008941650391</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.0822639465332</c:v>
+                  <c:v>57.08225631713867</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>50.15082931518555</c:v>
@@ -6011,13 +6011,13 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.00300979614258</c:v>
+                  <c:v>46.00300598144531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44.69503784179688</c:v>
+                  <c:v>44.69504165649414</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.80416870117188</c:v>
+                  <c:v>56.80417633056641</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>50.15082931518555</c:v>
@@ -6038,31 +6038,31 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>80.86664581298828</c:v>
+                  <c:v>80.86663055419922</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70.68994903564453</c:v>
+                  <c:v>70.68995666503906</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>66.87477111816406</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31.24271774291992</c:v>
+                  <c:v>31.24270248413086</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>71.29405212402344</c:v>
+                  <c:v>71.29404449462891</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>45.07972717285156</c:v>
+                  <c:v>45.0797233581543</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50.80096435546875</c:v>
+                  <c:v>50.80097579956055</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>72.41609191894531</c:v>
@@ -6071,10 +6071,10 @@
                   <c:v>54.65835571289062</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>80.53648376464844</c:v>
+                  <c:v>80.53647613525391</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>69.69865417480469</c:v>
+                  <c:v>69.69866943359375</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>59.22520446777344</c:v>
@@ -6095,7 +6095,7 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>50.77018356323242</c:v>
+                  <c:v>50.77017974853516</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>50.15082931518555</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>73.02153778076172</c:v>
+                  <c:v>73.02156066894531</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>50.15082931518555</c:v>
@@ -6146,13 +6146,13 @@
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>76.383056640625</c:v>
+                  <c:v>76.38304901123047</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>50.15082931518555</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>59.44184494018555</c:v>
+                  <c:v>59.44184875488281</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>50.15082931518555</c:v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.61781311035156</v>
+        <v>30.61780738830566</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>57.70899200439453</v>
+        <v>57.7089958190918</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.66524505615234</v>
+        <v>80.66525268554688</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>29.92597579956055</v>
+        <v>29.92597198486328</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>55.37207412719727</v>
+        <v>55.37208557128906</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>96.39145660400391</v>
+        <v>96.39146423339844</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>7.759207725524902</v>
+        <v>7.759209156036377</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>29.91083717346191</v>
+        <v>29.91084098815918</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>69.95925140380859</v>
+        <v>69.95924377441406</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>30.23220634460449</v>
+        <v>30.23221778869629</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>68.10670471191406</v>
+        <v>68.10671234130859</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>67.49008178710938</v>
+        <v>67.49008941650391</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>57.0822639465332</v>
+        <v>57.08225631713867</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>46.00300979614258</v>
+        <v>46.00300598144531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>44.69503784179688</v>
+        <v>44.69504165649414</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>56.80416870117188</v>
+        <v>56.80417633056641</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>80.86664581298828</v>
+        <v>80.86663055419922</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>70.68994903564453</v>
+        <v>70.68995666503906</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>31.24271774291992</v>
+        <v>31.24270248413086</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>93.2159</v>
       </c>
       <c r="F63">
-        <v>71.29405212402344</v>
+        <v>71.29404449462891</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>45.07972717285156</v>
+        <v>45.0797233581543</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>50.80096435546875</v>
+        <v>50.80097579956055</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>80.53648376464844</v>
+        <v>80.53647613525391</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>69.69865417480469</v>
+        <v>69.69866943359375</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>50.77018356323242</v>
+        <v>50.77017974853516</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>73.02153778076172</v>
+        <v>73.02156066894531</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>76.383056640625</v>
+        <v>76.38304901123047</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>59.44184494018555</v>
+        <v>59.44184875488281</v>
       </c>
     </row>
     <row r="96" spans="1:6">
